--- a/Backend/Excel/Final_Cost_Of_Attendence.xlsx
+++ b/Backend/Excel/Final_Cost_Of_Attendence.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bipularyal/Desktop/FISK_IPDES_Proj/Backend/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F43CF934-E77E-C64E-A996-8F6C0295FB7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{771E9E8B-C043-F743-BE50-117D60EB9ABD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{8C415C9C-9863-7D4B-B096-7AD110CE2008}"/>
   </bookViews>
@@ -44,13 +44,13 @@
     <t>Books and supplies</t>
   </si>
   <si>
-    <t>On Campus Room and Board</t>
+    <t>YEAR</t>
   </si>
   <si>
-    <t>On Campus Other Expenses</t>
+    <t>Room and Board</t>
   </si>
   <si>
-    <t>YEAR</t>
+    <t>Other Expenses</t>
   </si>
 </sst>
 </file>
@@ -425,7 +425,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -439,7 +439,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -448,10 +448,10 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
